--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H2">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I2">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J2">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>1479.374990708471</v>
+        <v>513.937803555385</v>
       </c>
       <c r="R2">
-        <v>13314.37491637624</v>
+        <v>4625.440231998464</v>
       </c>
       <c r="S2">
-        <v>0.03855705632505345</v>
+        <v>0.020171879559581</v>
       </c>
       <c r="T2">
-        <v>0.03855705632505345</v>
+        <v>0.020171879559581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H3">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I3">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J3">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>4873.113570746575</v>
+        <v>2759.10855150501</v>
       </c>
       <c r="R3">
-        <v>43858.02213671917</v>
+        <v>24831.97696354509</v>
       </c>
       <c r="S3">
-        <v>0.127008307971785</v>
+        <v>0.1082940484388228</v>
       </c>
       <c r="T3">
-        <v>0.127008307971785</v>
+        <v>0.1082940484388228</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H4">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I4">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J4">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>2449.650145980797</v>
+        <v>1463.783824568775</v>
       </c>
       <c r="R4">
-        <v>22046.85131382717</v>
+        <v>13174.05442111898</v>
       </c>
       <c r="S4">
-        <v>0.06384540718105854</v>
+        <v>0.05745300463635214</v>
       </c>
       <c r="T4">
-        <v>0.06384540718105854</v>
+        <v>0.05745300463635216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H5">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I5">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J5">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>5815.572771492207</v>
+        <v>2986.521649031509</v>
       </c>
       <c r="R5">
-        <v>52340.15494342986</v>
+        <v>26878.69484128358</v>
       </c>
       <c r="S5">
-        <v>0.1515716896129818</v>
+        <v>0.1172199332090047</v>
       </c>
       <c r="T5">
-        <v>0.1515716896129818</v>
+        <v>0.1172199332090048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J6">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>283.5960064063969</v>
+        <v>174.0083737242758</v>
       </c>
       <c r="R6">
-        <v>2552.364057657572</v>
+        <v>1566.075363518482</v>
       </c>
       <c r="S6">
-        <v>0.007391383024080382</v>
+        <v>0.00682976798523517</v>
       </c>
       <c r="T6">
-        <v>0.007391383024080381</v>
+        <v>0.006829767985235171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J7">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>934.1752808506715</v>
@@ -883,10 +883,10 @@
         <v>8407.577527656043</v>
       </c>
       <c r="S7">
-        <v>0.0243474772437396</v>
+        <v>0.03666605399037697</v>
       </c>
       <c r="T7">
-        <v>0.02434747724373959</v>
+        <v>0.03666605399037698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J8">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>469.5976360667723</v>
+        <v>495.6059683390542</v>
       </c>
       <c r="R8">
-        <v>4226.378724600952</v>
+        <v>4460.453715051488</v>
       </c>
       <c r="S8">
-        <v>0.01223915681802043</v>
+        <v>0.0194523614203592</v>
       </c>
       <c r="T8">
-        <v>0.01223915681802043</v>
+        <v>0.0194523614203592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J9">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>1114.844595399802</v>
+        <v>1011.172503064005</v>
       </c>
       <c r="R9">
-        <v>10033.60135859822</v>
+        <v>9100.552527576041</v>
       </c>
       <c r="S9">
-        <v>0.02905627452707314</v>
+        <v>0.03968816811034415</v>
       </c>
       <c r="T9">
-        <v>0.02905627452707314</v>
+        <v>0.03968816811034415</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H10">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>232.3359934325087</v>
+        <v>118.3292793428892</v>
       </c>
       <c r="R10">
-        <v>2091.023940892579</v>
+        <v>1064.963514086003</v>
       </c>
       <c r="S10">
-        <v>0.006055389635067725</v>
+        <v>0.004644382948217095</v>
       </c>
       <c r="T10">
-        <v>0.006055389635067726</v>
+        <v>0.004644382948217096</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H11">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>765.3229841520008</v>
+        <v>635.2584384137584</v>
       </c>
       <c r="R11">
-        <v>6887.906857368007</v>
+        <v>5717.325945723825</v>
       </c>
       <c r="S11">
-        <v>0.01994666774289259</v>
+        <v>0.02493367216857961</v>
       </c>
       <c r="T11">
-        <v>0.01994666774289259</v>
+        <v>0.02493367216857961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H12">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>384.7178056971053</v>
+        <v>337.0222697703057</v>
       </c>
       <c r="R12">
-        <v>3462.460251273948</v>
+        <v>3033.200427932752</v>
       </c>
       <c r="S12">
-        <v>0.01002692772061158</v>
+        <v>0.01322800655579832</v>
       </c>
       <c r="T12">
-        <v>0.01002692772061158</v>
+        <v>0.01322800655579833</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H13">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>913.3362979163369</v>
+        <v>687.6181359438602</v>
       </c>
       <c r="R13">
-        <v>8220.026681247031</v>
+        <v>6188.563223494742</v>
       </c>
       <c r="S13">
-        <v>0.02380434933918365</v>
+        <v>0.02698877203678668</v>
       </c>
       <c r="T13">
-        <v>0.02380434933918365</v>
+        <v>0.02698877203678669</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H14">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I14">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J14">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>1887.745752806034</v>
+        <v>889.1119102361459</v>
       </c>
       <c r="R14">
-        <v>16989.71177525431</v>
+        <v>8002.007192125313</v>
       </c>
       <c r="S14">
-        <v>0.04920045274218512</v>
+        <v>0.03489733240909518</v>
       </c>
       <c r="T14">
-        <v>0.04920045274218512</v>
+        <v>0.03489733240909518</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H15">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I15">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J15">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>6218.301312308117</v>
+        <v>4773.255163964872</v>
       </c>
       <c r="R15">
-        <v>55964.71181077306</v>
+        <v>42959.29647568385</v>
       </c>
       <c r="S15">
-        <v>0.1620680324127944</v>
+        <v>0.1873486005671329</v>
       </c>
       <c r="T15">
-        <v>0.1620680324127944</v>
+        <v>0.1873486005671329</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H16">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I16">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J16">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>3125.858344219643</v>
+        <v>2532.344621142199</v>
       </c>
       <c r="R16">
-        <v>28132.72509797679</v>
+        <v>22791.10159027979</v>
       </c>
       <c r="S16">
-        <v>0.08146946987693524</v>
+        <v>0.09939364325342588</v>
       </c>
       <c r="T16">
-        <v>0.08146946987693524</v>
+        <v>0.09939364325342591</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H17">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I17">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J17">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>7420.91955621159</v>
+        <v>5166.67960590265</v>
       </c>
       <c r="R17">
-        <v>66788.27600590431</v>
+        <v>46500.11645312385</v>
       </c>
       <c r="S17">
-        <v>0.1934119578265374</v>
+        <v>0.202790372710888</v>
       </c>
       <c r="T17">
-        <v>0.1934119578265374</v>
+        <v>0.202790372710888</v>
       </c>
     </row>
   </sheetData>
